--- a/Synthèse-Experiences/ExperimentsMAJ15juillet.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJ15juillet.xlsx
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="120">
   <si>
     <t>Colonne7</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>Array dots</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -4087,7 +4090,7 @@
   <dimension ref="A1:AG93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
@@ -9637,7 +9640,9 @@
       <c r="L68" s="14"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
-      <c r="O68" s="49"/>
+      <c r="O68" s="49" t="s">
+        <v>119</v>
+      </c>
       <c r="P68" s="14"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="29">
@@ -9660,14 +9665,14 @@
         <v>0</v>
       </c>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="29">
+      <c r="Z68" s="29" t="e">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA68" s="15"/>
-      <c r="AB68" s="29">
+      <c r="AB68" s="29" t="e">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AC68" s="15"/>
       <c r="AD68" s="85"/>
